--- a/dataproject/Historical_emissions.xlsx
+++ b/dataproject/Historical_emissions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93A8023-0738-40E7-9557-0480F5B74617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A93A8023-0738-40E7-9557-0480F5B74617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B7CAB06-5E01-4544-8493-13E6C23D2197}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical_emissions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>10 Aviation</t>
   </si>
@@ -29,21 +29,6 @@
   </si>
   <si>
     <t>20-99 All stationary installations</t>
-  </si>
-  <si>
-    <t>EU27 + UK</t>
-  </si>
-  <si>
-    <t>Emissions Unit</t>
-  </si>
-  <si>
-    <t>ETS information</t>
-  </si>
-  <si>
-    <t>t CO2-eq</t>
-  </si>
-  <si>
-    <t>2. Verified emissions</t>
   </si>
   <si>
     <t>51 019 141,000</t>
@@ -130,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -964,14 +949,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="27" max="27" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -994,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -1021,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U1" t="s">
         <v>2</v>
@@ -1047,272 +1044,171 @@
       <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2">
+        <v>2015</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2">
+        <v>2017</v>
+      </c>
+      <c r="F2">
+        <v>2018</v>
+      </c>
+      <c r="G2">
+        <v>2019</v>
+      </c>
+      <c r="H2">
+        <v>2020</v>
+      </c>
+      <c r="I2">
+        <v>2021</v>
+      </c>
+      <c r="J2">
+        <v>2013</v>
+      </c>
+      <c r="K2">
+        <v>2014</v>
+      </c>
+      <c r="L2">
+        <v>2015</v>
+      </c>
+      <c r="M2">
+        <v>2016</v>
+      </c>
+      <c r="N2">
+        <v>2017</v>
+      </c>
+      <c r="O2">
+        <v>2018</v>
+      </c>
+      <c r="P2">
+        <v>2019</v>
+      </c>
+      <c r="Q2">
+        <v>2020</v>
+      </c>
+      <c r="R2">
+        <v>2021</v>
+      </c>
+      <c r="S2">
+        <v>2013</v>
+      </c>
+      <c r="T2">
+        <v>2014</v>
+      </c>
+      <c r="U2">
+        <v>2015</v>
+      </c>
+      <c r="V2">
+        <v>2016</v>
+      </c>
+      <c r="W2">
+        <v>2017</v>
+      </c>
+      <c r="X2">
+        <v>2018</v>
+      </c>
+      <c r="Y2">
+        <v>2019</v>
+      </c>
+      <c r="Z2">
+        <v>2020</v>
+      </c>
+      <c r="AA2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2013</v>
-      </c>
-      <c r="D3">
-        <v>2014</v>
-      </c>
-      <c r="E3">
-        <v>2015</v>
-      </c>
-      <c r="F3">
-        <v>2016</v>
-      </c>
-      <c r="G3">
-        <v>2017</v>
-      </c>
-      <c r="H3">
-        <v>2018</v>
-      </c>
-      <c r="I3">
-        <v>2019</v>
-      </c>
-      <c r="J3">
-        <v>2020</v>
-      </c>
-      <c r="K3">
-        <v>2021</v>
-      </c>
-      <c r="L3">
-        <v>2013</v>
-      </c>
-      <c r="M3">
-        <v>2014</v>
-      </c>
-      <c r="N3">
-        <v>2015</v>
-      </c>
-      <c r="O3">
-        <v>2016</v>
-      </c>
-      <c r="P3">
-        <v>2017</v>
-      </c>
-      <c r="Q3">
-        <v>2018</v>
-      </c>
-      <c r="R3">
-        <v>2019</v>
-      </c>
-      <c r="S3">
-        <v>2020</v>
-      </c>
-      <c r="T3">
-        <v>2021</v>
-      </c>
-      <c r="U3">
-        <v>2013</v>
-      </c>
-      <c r="V3">
-        <v>2014</v>
-      </c>
-      <c r="W3">
-        <v>2015</v>
-      </c>
-      <c r="X3">
-        <v>2016</v>
-      </c>
-      <c r="Y3">
-        <v>2017</v>
-      </c>
-      <c r="Z3">
-        <v>2018</v>
-      </c>
-      <c r="AA3">
-        <v>2019</v>
-      </c>
-      <c r="AB3">
-        <v>2020</v>
-      </c>
-      <c r="AC3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R3" t="s">
         <v>20</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S3" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T3" t="s">
         <v>22</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U3" t="s">
         <v>23</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V3" t="s">
         <v>24</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W3" t="s">
         <v>25</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X3" t="s">
         <v>26</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y3" t="s">
         <v>27</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z3" t="s">
         <v>28</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA3" t="s">
         <v>29</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/dataproject/Historical_emissions.xlsx
+++ b/dataproject/Historical_emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A93A8023-0738-40E7-9557-0480F5B74617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B7CAB06-5E01-4544-8493-13E6C23D2197}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{A93A8023-0738-40E7-9557-0480F5B74617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC3891BF-9A63-4F91-989B-7A0C76219BDC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>10 Aviation</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>1310 649 793,000</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Emissions</t>
   </si>
 </sst>
 </file>
@@ -651,6 +660,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,264 +963,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2014</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2015</v>
       </c>
-      <c r="D2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2016</v>
       </c>
-      <c r="E2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2017</v>
       </c>
-      <c r="F2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2018</v>
       </c>
-      <c r="G2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2019</v>
       </c>
-      <c r="H2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2020</v>
       </c>
-      <c r="I2">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2021</v>
       </c>
-      <c r="J2">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2013</v>
       </c>
-      <c r="K2">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2014</v>
       </c>
-      <c r="L2">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2015</v>
       </c>
-      <c r="M2">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2016</v>
       </c>
-      <c r="N2">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2017</v>
       </c>
-      <c r="O2">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2018</v>
       </c>
-      <c r="P2">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2019</v>
       </c>
-      <c r="Q2">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>2020</v>
       </c>
-      <c r="R2">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>2021</v>
       </c>
-      <c r="S2">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2013</v>
       </c>
-      <c r="T2">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2014</v>
       </c>
-      <c r="U2">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>2015</v>
       </c>
-      <c r="V2">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>2016</v>
       </c>
-      <c r="W2">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>2017</v>
       </c>
-      <c r="X2">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>2018</v>
       </c>
-      <c r="Y2">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>2019</v>
       </c>
-      <c r="Z2">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>2020</v>
       </c>
-      <c r="AA2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
       </c>
     </row>
